--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,145 +55,145 @@
     <t>died</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>ready</t>
   </si>
   <si>
     <t>security</t>
@@ -724,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1035,28 +1035,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1111111111111111</v>
+        <v>0.09514563106796116</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>0.9399999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="F8">
-        <v>0.06000000000000005</v>
+        <v>0.98</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>112</v>
+        <v>466</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.9655172413793104</v>
@@ -1081,32 +1081,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.09514563106796116</v>
-      </c>
-      <c r="C9">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>0.02</v>
-      </c>
-      <c r="F9">
-        <v>0.98</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>466</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.9555555555555556</v>
@@ -1132,7 +1108,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1158,7 +1134,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.9411764705882353</v>
@@ -1184,7 +1160,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.9361702127659575</v>
@@ -1210,7 +1186,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.9333333333333333</v>
@@ -1236,7 +1212,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.9230769230769231</v>
@@ -1262,7 +1238,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.9166666666666666</v>
@@ -1288,7 +1264,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.8976377952755905</v>
@@ -1314,7 +1290,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.8899082568807339</v>
@@ -1340,7 +1316,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.8846153846153846</v>
@@ -1366,7 +1342,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1392,7 +1368,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.8636363636363636</v>
@@ -1418,7 +1394,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.8636363636363636</v>
@@ -1444,7 +1420,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.8518518518518519</v>
@@ -1470,7 +1446,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.85</v>
@@ -1496,7 +1472,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>0.8421052631578947</v>
@@ -1522,7 +1498,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.84</v>
@@ -1548,7 +1524,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.8285714285714286</v>
@@ -1574,7 +1550,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>0.8253968253968254</v>
@@ -1600,7 +1576,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>0.8141025641025641</v>
@@ -1626,7 +1602,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>0.797979797979798</v>
@@ -1652,7 +1628,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>0.7857142857142857</v>
@@ -1678,7 +1654,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.7843137254901961</v>
@@ -1704,42 +1680,42 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.762114537444934</v>
+        <v>0.75</v>
       </c>
       <c r="L32">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1751,12 +1727,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>0.7222222222222222</v>
@@ -1782,7 +1758,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>0.7121212121212122</v>
@@ -1808,7 +1784,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>0.7</v>
@@ -1834,7 +1810,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>0.6956521739130435</v>
@@ -1860,7 +1836,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>0.6888888888888889</v>
@@ -1886,7 +1862,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
         <v>0.6857142857142857</v>
@@ -1912,7 +1888,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>0.6829268292682927</v>
@@ -1938,7 +1914,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>0.6818181818181818</v>
@@ -1964,28 +1940,28 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.656441717791411</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L42">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="M42">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1993,25 +1969,25 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.6538461538461539</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L43">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2022,22 +1998,22 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2045,25 +2021,25 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.6521739130434783</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2071,25 +2047,25 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.6363636363636364</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N46">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O46">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2097,25 +2073,25 @@
         <v>59</v>
       </c>
       <c r="K47">
-        <v>0.6296296296296297</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="10:17">
